--- a/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
@@ -30,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.168</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.168</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -568,9 +574,6 @@
   </si>
   <si>
     <t>Société en participation (SEP)</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -710,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -816,20 +819,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -851,658 +862,658 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>185</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,508 +72,505 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Statut juridique FINESS dans le RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>En cours de vérification</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Département</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Territoire d'Outre Mer</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Autre Collectivité Territoriale</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Métropole ou pôle métropolitain</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Centre Intercommunal d'Action Sociale</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Etablissement Public National d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Etablissement Public Départemental d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Etablissement Public Interdépartemental d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Etablissement Public Communal d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Etablissement Public Intercommunal d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Etablissement Public Régional d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Syndicat Inter Hospitalier</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Centre Communal d'Action Sociale</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social National</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Départemental</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Interdépartemental</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Communal</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Intercommunal</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Régional</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Office Public d'H.L.M.</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Caisse des Ecoles</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Autre Etablissement Public à Caractère Administratif</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Etablissement Public à Caractère Industriel ou Commercial</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Groupement d'Intérêt Public (G.I.P.)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sanitaire public</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sociale ou Médico-Sociale public</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Régime Général de Sécurité Sociale</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Régime Spécial de Sécurité Sociale</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Institution de Prévoyance</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Mutualité Sociale Agricole (M.S.A.)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Régime Maladie des non Salariés non Agricole</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Régime Vieillesse Particulier</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Autre Régime de Prévoyance Sociale</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Société Mutualiste</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Assurance Mutuelle Agricole</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Autre Organisme Mutualiste</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Comité d'Entreprise ou Comité d'Etablissement</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Syndicat</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Syndicat de Propriétaires</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Association Loi 1901 non Reconnue d'Utilité Publique</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Association Loi 1901 Reconnue d'Utilité Publique</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Association de Droit Local</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Fondation</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Congrégation</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Autre Organisme Privé à But non Lucratif</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sociale ou Médico-Sociale privé</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Personne Physique</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Société en Nom Collectif (S.N.C.)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Société A Responsabilité Limitée (S.A.R.L.)</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Société Anonyme (S.A.)</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Société Civile</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Autre Société</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Groupement d'Intérêt Economique (G.I.E.)</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Autre Organisme Privé à Caractère Commercial</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Entreprise Unipersonnelle Responsabilité Limitée (E.U.R.L.)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Société Civile de Moyens (S.C.M.)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Société Interprofessionnelle Soins Ambulatoires (S.I.S.A.)</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Soc. Exercice Libéral Responsabilité Limitée (S.E.L.A.R.L.)</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Société d'Exercice Libéral à Forme Anonyme (S.E.L.A.F.A.)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Société Exercice Libéral Commandite par Actions (S.E.L.C.A.)</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Société Civile Professionnelle (S.C.P.)</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sanitaire Privé</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Organisme de Droit Etranger</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Société Exercice Libéral par Actions Simplifiée (S.E.L.A.S.)</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Société en commandite</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Société par Actions Simplifiée (S.A.S.)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Société d'exercice libéral à responsabilité limitée unipersonnelle (SELURL)</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Société d'exercice libéral par actions simplifiée (SELAS)</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Société d'exercice libéral par actions simplifiée unipersonnelle (SELASU)</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Société en commandite simple (SCS)</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Société en commandite par actions (SCA)</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Société par actions simplifiée (SAS)</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Société anonyme à directoire (SADI)</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Société Anonyme à conseil d'administration (SACA)</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Société en participation (SEP)</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Statut juridique FINESS dans le RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>En cours de vérification</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Département</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Commune</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Territoire d'Outre Mer</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Autre Collectivité Territoriale</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Métropole ou pôle métropolitain</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Centre Intercommunal d'Action Sociale</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Etablissement Public National d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Etablissement Public Départemental d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Etablissement Public Interdépartemental d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Etablissement Public Communal d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Etablissement Public Intercommunal d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Etablissement Public Régional d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Syndicat Inter Hospitalier</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Centre Communal d'Action Sociale</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social National</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Départemental</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Interdépartemental</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Communal</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Intercommunal</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Régional</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Office Public d'H.L.M.</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Caisse des Ecoles</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Autre Etablissement Public à Caractère Administratif</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Etablissement Public à Caractère Industriel ou Commercial</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Groupement d'Intérêt Public (G.I.P.)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sanitaire public</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sociale ou Médico-Sociale public</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Régime Général de Sécurité Sociale</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Régime Spécial de Sécurité Sociale</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Institution de Prévoyance</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Mutualité Sociale Agricole (M.S.A.)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Régime Maladie des non Salariés non Agricole</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Régime Vieillesse Particulier</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Autre Régime de Prévoyance Sociale</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Société Mutualiste</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Assurance Mutuelle Agricole</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Autre Organisme Mutualiste</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Comité d'Entreprise ou Comité d'Etablissement</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Syndicat</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Syndicat de Propriétaires</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Association Loi 1901 non Reconnue d'Utilité Publique</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Association Loi 1901 Reconnue d'Utilité Publique</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Association de Droit Local</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Fondation</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Congrégation</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Autre Organisme Privé à But non Lucratif</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sociale ou Médico-Sociale privé</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Personne Physique</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Société en Nom Collectif (S.N.C.)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Société A Responsabilité Limitée (S.A.R.L.)</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Société Anonyme (S.A.)</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Société Civile</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Autre Société</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Groupement d'Intérêt Economique (G.I.E.)</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Autre Organisme Privé à Caractère Commercial</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Entreprise Unipersonnelle Responsabilité Limitée (E.U.R.L.)</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Société Civile de Moyens (S.C.M.)</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Société Interprofessionnelle Soins Ambulatoires (S.I.S.A.)</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Soc. Exercice Libéral Responsabilité Limitée (S.E.L.A.R.L.)</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Société d'Exercice Libéral à Forme Anonyme (S.E.L.A.F.A.)</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Société Exercice Libéral Commandite par Actions (S.E.L.C.A.)</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Société Civile Professionnelle (S.C.P.)</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sanitaire Privé</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Organisme de Droit Etranger</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Société Exercice Libéral par Actions Simplifiée (S.E.L.A.S.)</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Société en commandite</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Société par Actions Simplifiée (S.A.S.)</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Société d'exercice libéral à responsabilité limitée unipersonnelle (SELURL)</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Société d'exercice libéral par actions simplifiée (SELAS)</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Société d'exercice libéral par actions simplifiée unipersonnelle (SELASU)</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Société en commandite simple (SCS)</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Société en commandite par actions (SCA)</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Société par actions simplifiée (SAS)</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Société anonyme à directoire (SADI)</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Société Anonyme à conseil d'administration (SACA)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Société en participation (SEP)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -713,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -819,28 +816,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -862,658 +851,658 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="188">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,505 +75,502 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Statut juridique FINESS dans le RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>En cours de vérification</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Etat</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Département</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Territoire d'Outre Mer</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Autre Collectivité Territoriale</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Métropole ou pôle métropolitain</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Centre Intercommunal d'Action Sociale</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Etablissement Public National d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Etablissement Public Départemental d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Etablissement Public Interdépartemental d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Etablissement Public Communal d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Etablissement Public Intercommunal d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Etablissement Public Régional d'Hospitalisation</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Syndicat Inter Hospitalier</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Centre Communal d'Action Sociale</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social National</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Départemental</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Interdépartemental</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Communal</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Intercommunal</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Etablissement Social et Médico-Social Régional</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Office Public d'H.L.M.</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Caisse des Ecoles</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Autre Etablissement Public à Caractère Administratif</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Etablissement Public à Caractère Industriel ou Commercial</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Groupement d'Intérêt Public (G.I.P.)</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sanitaire public</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sociale ou Médico-Sociale public</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Régime Général de Sécurité Sociale</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Régime Spécial de Sécurité Sociale</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Institution de Prévoyance</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Mutualité Sociale Agricole (M.S.A.)</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Régime Maladie des non Salariés non Agricole</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Régime Vieillesse Particulier</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Autre Régime de Prévoyance Sociale</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Société Mutualiste</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Assurance Mutuelle Agricole</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Autre Organisme Mutualiste</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Comité d'Entreprise ou Comité d'Etablissement</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Syndicat</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Syndicat de Propriétaires</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Association Loi 1901 non Reconnue d'Utilité Publique</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Association Loi 1901 Reconnue d'Utilité Publique</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Association de Droit Local</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Fondation</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Congrégation</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Autre Organisme Privé à But non Lucratif</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sociale ou Médico-Sociale privé</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Personne Physique</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Société en Nom Collectif (S.N.C.)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Société A Responsabilité Limitée (S.A.R.L.)</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Société Anonyme (S.A.)</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Société Civile</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Autre Société</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Groupement d'Intérêt Economique (G.I.E.)</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Autre Organisme Privé à Caractère Commercial</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Entreprise Unipersonnelle Responsabilité Limitée (E.U.R.L.)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Société Civile de Moyens (S.C.M.)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Société Interprofessionnelle Soins Ambulatoires (S.I.S.A.)</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Soc. Exercice Libéral Responsabilité Limitée (S.E.L.A.R.L.)</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Société d'Exercice Libéral à Forme Anonyme (S.E.L.A.F.A.)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Société Exercice Libéral Commandite par Actions (S.E.L.C.A.)</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Société Civile Professionnelle (S.C.P.)</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Groupement de Coopération Sanitaire Privé</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Organisme de Droit Etranger</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Société Exercice Libéral par Actions Simplifiée (S.E.L.A.S.)</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Société en commandite</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Société par Actions Simplifiée (S.A.S.)</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Société d'exercice libéral à responsabilité limitée unipersonnelle (SELURL)</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Société d'exercice libéral par actions simplifiée (SELAS)</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Société d'exercice libéral par actions simplifiée unipersonnelle (SELASU)</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Société en commandite simple (SCS)</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Société en commandite par actions (SCA)</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Société par actions simplifiée (SAS)</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Société anonyme à directoire (SADI)</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Société Anonyme à conseil d'administration (SACA)</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Société en participation (SEP)</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Statut juridique FINESS dans le RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>En cours de vérification</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Etat</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Département</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Commune</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Région</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Territoire d'Outre Mer</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Autre Collectivité Territoriale</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Métropole ou pôle métropolitain</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Centre Intercommunal d'Action Sociale</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Etablissement Public National d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Etablissement Public Départemental d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Etablissement Public Interdépartemental d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Etablissement Public Communal d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Etablissement Public Intercommunal d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Etablissement Public Régional d'Hospitalisation</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Syndicat Inter Hospitalier</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Centre Communal d'Action Sociale</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social National</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Départemental</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Interdépartemental</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Communal</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Intercommunal</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Etablissement Social et Médico-Social Régional</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Office Public d'H.L.M.</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Caisse des Ecoles</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Autre Etablissement Public à Caractère Administratif</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Etablissement Public à Caractère Industriel ou Commercial</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Groupement d'Intérêt Public (G.I.P.)</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sanitaire public</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sociale ou Médico-Sociale public</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Régime Général de Sécurité Sociale</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Régime Spécial de Sécurité Sociale</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Institution de Prévoyance</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Mutualité Sociale Agricole (M.S.A.)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Régime Maladie des non Salariés non Agricole</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Régime Vieillesse Particulier</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Autre Régime de Prévoyance Sociale</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Société Mutualiste</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>Assurance Mutuelle Agricole</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Autre Organisme Mutualiste</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Comité d'Entreprise ou Comité d'Etablissement</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Syndicat</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Syndicat de Propriétaires</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Association Loi 1901 non Reconnue d'Utilité Publique</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Association Loi 1901 Reconnue d'Utilité Publique</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>Association de Droit Local</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Fondation</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Congrégation</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Autre Organisme Privé à But non Lucratif</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sociale ou Médico-Sociale privé</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Personne Physique</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Société en Nom Collectif (S.N.C.)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Société A Responsabilité Limitée (S.A.R.L.)</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Société Anonyme (S.A.)</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Société Civile</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Autre Société</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Groupement d'Intérêt Economique (G.I.E.)</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Autre Organisme Privé à Caractère Commercial</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Entreprise Unipersonnelle Responsabilité Limitée (E.U.R.L.)</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Société Civile de Moyens (S.C.M.)</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Société Interprofessionnelle Soins Ambulatoires (S.I.S.A.)</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Soc. Exercice Libéral Responsabilité Limitée (S.E.L.A.R.L.)</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Société d'Exercice Libéral à Forme Anonyme (S.E.L.A.F.A.)</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Société Exercice Libéral Commandite par Actions (S.E.L.C.A.)</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>Société Civile Professionnelle (S.C.P.)</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Groupement de Coopération Sanitaire Privé</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Organisme de Droit Etranger</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Société Exercice Libéral par Actions Simplifiée (S.E.L.A.S.)</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Société en commandite</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Société par Actions Simplifiée (S.A.S.)</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Société d'exercice libéral à responsabilité limitée unipersonnelle (SELURL)</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Société d'exercice libéral par actions simplifiée (SELAS)</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Société d'exercice libéral par actions simplifiée unipersonnelle (SELASU)</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Société en commandite simple (SCS)</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>Société en commandite par actions (SCA)</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>Société par actions simplifiée (SAS)</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Société anonyme à directoire (SADI)</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>Société Anonyme à conseil d'administration (SACA)</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Société en participation (SEP)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -713,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -819,28 +816,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -862,658 +851,658 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>21</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B82" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J100-FinessStatutJuridique-RASS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
